--- a/src/data/FAQ_JOHN_REVIEW.xlsx
+++ b/src/data/FAQ_JOHN_REVIEW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jshen/workspace/wits-faq-bot/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE3ADCD-1A04-8D46-BE8F-78EF480319FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D260A1A-8D91-5044-BFB9-025672C74E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4660" yWindow="1380" windowWidth="35980" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="230323" sheetId="14" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="743">
   <si>
     <t>Finance</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3064,9 +3064,6 @@
 H: 國內出差，500新台幣/日</t>
   </si>
   <si>
-    <t>緯創軟體董事長是誰？</t>
-  </si>
-  <si>
     <t>漂亮寶貝是誰</t>
   </si>
   <si>
@@ -3103,6 +3100,18 @@
   </si>
   <si>
     <t>申請國內外出差日支費或旅費怎麼計算？</t>
+  </si>
+  <si>
+    <t>緯創軟體董事長暨執行長是誰？</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>請問有關於員工服務的問答題區(FAQ)嗎？</t>
+  </si>
+  <si>
+    <t>有的，https://faq.wistronits.com/redmine</t>
   </si>
 </sst>
 </file>
@@ -3241,7 +3250,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3314,6 +3323,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3336,15 +3348,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
+      <xdr:colOff>94862</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:rowOff>779873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>6143625</xdr:colOff>
+      <xdr:colOff>6214674</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>2590142</xdr:rowOff>
+      <xdr:rowOff>3131890</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3373,7 +3385,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3148013" y="120005475"/>
+          <a:off x="3203254" y="148828125"/>
           <a:ext cx="6119812" cy="2352017"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3749,11 +3761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I219"/>
+  <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D223" sqref="D223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -4020,7 +4032,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>726</v>
@@ -4608,7 +4620,7 @@
         <v>568</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>671</v>
@@ -8225,7 +8237,7 @@
         <v>450</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>404</v>
@@ -8770,41 +8782,43 @@
     </row>
     <row r="215" spans="1:9" ht="85">
       <c r="A215" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>635</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>736</v>
-      </c>
+        <v>735</v>
+      </c>
+      <c r="E215" s="24"/>
+      <c r="F215" s="6"/>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>635</v>
       </c>
       <c r="C216" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="D216" s="3" t="s">
         <v>728</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>635</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D217" s="3">
         <v>4953</v>
@@ -8812,30 +8826,44 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>635</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>635</v>
       </c>
       <c r="C219" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="D219" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="D219" s="6" t="s">
-        <v>735</v>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>742</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/FAQ_JOHN_REVIEW.xlsx
+++ b/src/data/FAQ_JOHN_REVIEW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jshen/workspace/wits-faq-bot/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D260A1A-8D91-5044-BFB9-025672C74E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27F5FE3-03BB-214C-B6F6-9987E5BE496B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="1380" windowWidth="35980" windowHeight="20060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="230323" sheetId="14" r:id="rId1"/>
@@ -22,17 +22,28 @@
     <definedName name="Q如何申請喪葬奠儀" localSheetId="0">'230323'!$C$170</definedName>
     <definedName name="Q如何申請生育賀儀" localSheetId="0">'230323'!$C$172</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="745">
   <si>
     <t>Finance</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3112,6 +3123,12 @@
   </si>
   <si>
     <t>有的，https://faq.wistronits.com/redmine</t>
+  </si>
+  <si>
+    <t>緯創軟體公司電話</t>
+  </si>
+  <si>
+    <t>886-2-7745-8888</t>
   </si>
 </sst>
 </file>
@@ -3761,11 +3778,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I220"/>
+  <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D223" sqref="D223"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -8864,6 +8881,20 @@
       </c>
       <c r="D220" s="6" t="s">
         <v>742</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>744</v>
       </c>
     </row>
   </sheetData>

--- a/src/data/FAQ_JOHN_REVIEW.xlsx
+++ b/src/data/FAQ_JOHN_REVIEW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jshen/workspace/wits-faq-bot/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27F5FE3-03BB-214C-B6F6-9987E5BE496B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B6382F-336F-2045-AF02-64F42D7407FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="743">
   <si>
     <t>Finance</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2389,11 +2389,6 @@
   </si>
   <si>
     <t>我想知道疫情期間有什麼假別可以使用？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">相關假別說明：
-</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3075,12 +3070,6 @@
 H: 國內出差，500新台幣/日</t>
   </si>
   <si>
-    <t>漂亮寶貝是誰</t>
-  </si>
-  <si>
-    <t>薛宇絜</t>
-  </si>
-  <si>
     <t>General</t>
   </si>
   <si>
@@ -3113,9 +3102,6 @@
     <t>申請國內外出差日支費或旅費怎麼計算？</t>
   </si>
   <si>
-    <t>緯創軟體董事長暨執行長是誰？</t>
-  </si>
-  <si>
     <t>其他</t>
   </si>
   <si>
@@ -3129,6 +3115,12 @@
   </si>
   <si>
     <t>886-2-7745-8888</t>
+  </si>
+  <si>
+    <t>疫苗接種假、防疫照顧假、防疫隔離假</t>
+  </si>
+  <si>
+    <t>緯創軟體董事長暨執行長(CEO)是誰？</t>
   </si>
 </sst>
 </file>
@@ -3364,56 +3356,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>94862</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>779873</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>6214674</xdr:colOff>
-      <xdr:row>211</xdr:row>
-      <xdr:rowOff>3131890</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3203254" y="148828125"/>
-          <a:ext cx="6119812" cy="2352017"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1518160</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -3439,7 +3381,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3489,7 +3431,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3778,10 +3720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I221"/>
+  <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
@@ -3801,31 +3743,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="10" customFormat="1" ht="17">
       <c r="A1" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>723</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>721</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="14" customFormat="1" ht="187">
@@ -3839,10 +3781,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>3</v>
@@ -3861,13 +3803,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>580</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>4</v>
@@ -3890,7 +3832,7 @@
         <v>583</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>6</v>
@@ -3910,10 +3852,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>8</v>
@@ -3936,7 +3878,7 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>11</v>
@@ -3961,7 +3903,7 @@
         <v>581</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>13</v>
@@ -3984,7 +3926,7 @@
         <v>577</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>16</v>
@@ -4001,20 +3943,20 @@
         <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="13" t="s">
         <v>649</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>650</v>
       </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I9" s="21"/>
     </row>
@@ -4029,10 +3971,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>19</v>
@@ -4049,13 +3991,13 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>20</v>
@@ -4077,10 +4019,10 @@
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>584</v>
@@ -4105,7 +4047,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>24</v>
@@ -4125,10 +4067,10 @@
         <v>25</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>26</v>
@@ -4151,7 +4093,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F15" s="13" t="s">
         <v>29</v>
@@ -4174,7 +4116,7 @@
         <v>31</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>32</v>
@@ -4194,10 +4136,10 @@
         <v>33</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>32</v>
@@ -4220,7 +4162,7 @@
         <v>578</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>35</v>
@@ -4243,7 +4185,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>39</v>
@@ -4268,7 +4210,7 @@
         <v>41</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>42</v>
@@ -4285,13 +4227,13 @@
         <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>44</v>
@@ -4314,7 +4256,7 @@
         <v>46</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>47</v>
@@ -4331,16 +4273,16 @@
         <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>658</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="E23" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>659</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>660</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
@@ -4357,10 +4299,10 @@
         <v>49</v>
       </c>
       <c r="D24" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>661</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>662</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>50</v>
@@ -4380,10 +4322,10 @@
         <v>51</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>52</v>
@@ -4406,7 +4348,7 @@
         <v>54</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>55</v>
@@ -4426,10 +4368,10 @@
         <v>58</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>59</v>
@@ -4449,10 +4391,10 @@
         <v>60</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>61</v>
@@ -4475,7 +4417,7 @@
         <v>327</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>63</v>
@@ -4498,7 +4440,7 @@
         <v>326</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>66</v>
@@ -4520,10 +4462,10 @@
         <v>67</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>64</v>
@@ -4543,10 +4485,10 @@
         <v>69</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>68</v>
@@ -4566,10 +4508,10 @@
         <v>71</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>682</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>683</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>72</v>
@@ -4589,10 +4531,10 @@
         <v>73</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>74</v>
@@ -4612,10 +4554,10 @@
         <v>75</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>76</v>
@@ -4637,10 +4579,10 @@
         <v>568</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F36" s="20" t="s">
         <v>565</v>
@@ -4663,7 +4605,7 @@
         <v>549</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>550</v>
@@ -4688,7 +4630,7 @@
         <v>555</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>556</v>
@@ -4713,7 +4655,7 @@
         <v>558</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>553</v>
@@ -4738,7 +4680,7 @@
         <v>576</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>561</v>
@@ -4760,10 +4702,10 @@
         <v>78</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>79</v>
@@ -4783,10 +4725,10 @@
         <v>81</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>82</v>
@@ -4806,10 +4748,10 @@
         <v>83</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>84</v>
@@ -4832,7 +4774,7 @@
         <v>87</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>88</v>
@@ -4855,7 +4797,7 @@
         <v>91</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>93</v>
@@ -4878,7 +4820,7 @@
         <v>95</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>96</v>
@@ -4923,10 +4865,10 @@
         <v>101</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F48" s="15" t="s">
         <v>102</v>
@@ -4948,10 +4890,10 @@
         <v>103</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>104</v>
@@ -4976,7 +4918,7 @@
         <v>106</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F50" s="15" t="s">
         <v>107</v>
@@ -4996,10 +4938,10 @@
         <v>108</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>109</v>
@@ -5019,7 +4961,7 @@
         <v>110</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>434</v>
@@ -5088,17 +5030,17 @@
         <v>117</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F55" s="15" t="s">
         <v>118</v>
       </c>
       <c r="G55" s="21"/>
       <c r="H55" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I55" s="21"/>
     </row>
@@ -5116,7 +5058,7 @@
         <v>120</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F56" s="15" t="s">
         <v>121</v>
@@ -5136,17 +5078,17 @@
         <v>122</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>123</v>
       </c>
       <c r="G57" s="21"/>
       <c r="H57" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I57" s="21"/>
     </row>
@@ -5161,10 +5103,10 @@
         <v>489</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>124</v>
@@ -5187,7 +5129,7 @@
         <v>125</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>126</v>
@@ -5207,10 +5149,10 @@
         <v>127</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F60" s="15" t="s">
         <v>128</v>
@@ -5253,7 +5195,7 @@
         <v>132</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>434</v>
@@ -5282,7 +5224,7 @@
         <v>434</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G63" s="21"/>
       <c r="H63" s="21"/>
@@ -5305,7 +5247,7 @@
         <v>434</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
@@ -5368,7 +5310,7 @@
         <v>142</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>434</v>
@@ -5397,7 +5339,7 @@
         <v>434</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G68" s="21"/>
       <c r="H68" s="21"/>
@@ -5486,7 +5428,7 @@
         <v>488</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>152</v>
@@ -5506,7 +5448,7 @@
         <v>572</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>434</v>
@@ -5528,19 +5470,19 @@
         <v>129</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>419</v>
       </c>
       <c r="F74" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="G74" s="21" t="s">
         <v>665</v>
-      </c>
-      <c r="G74" s="21" t="s">
-        <v>666</v>
       </c>
       <c r="H74" s="21"/>
       <c r="I74" s="21"/>
@@ -5559,7 +5501,7 @@
         <v>509</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F75" s="15" t="s">
         <v>155</v>
@@ -5582,7 +5524,7 @@
         <v>493</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F76" s="15" t="s">
         <v>155</v>
@@ -5602,10 +5544,10 @@
         <v>157</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F77" s="15" t="s">
         <v>158</v>
@@ -5628,7 +5570,7 @@
         <v>160</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F78" s="15" t="s">
         <v>161</v>
@@ -5648,10 +5590,10 @@
         <v>162</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F79" s="15" t="s">
         <v>163</v>
@@ -5676,7 +5618,7 @@
         <v>499</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>166</v>
@@ -5699,7 +5641,7 @@
         <v>498</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F81" s="15" t="s">
         <v>168</v>
@@ -5722,7 +5664,7 @@
         <v>495</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F82" s="15" t="s">
         <v>170</v>
@@ -5745,7 +5687,7 @@
         <v>497</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F83" s="15" t="s">
         <v>172</v>
@@ -5768,7 +5710,7 @@
         <v>496</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F84" s="15" t="s">
         <v>174</v>
@@ -5791,7 +5733,7 @@
         <v>501</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F85" s="15" t="s">
         <v>176</v>
@@ -5814,7 +5756,7 @@
         <v>501</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F86" s="15" t="s">
         <v>178</v>
@@ -5837,7 +5779,7 @@
         <v>500</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>180</v>
@@ -5860,7 +5802,7 @@
         <v>503</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F88" s="15" t="s">
         <v>183</v>
@@ -5883,7 +5825,7 @@
         <v>504</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F89" s="15" t="s">
         <v>185</v>
@@ -5906,7 +5848,7 @@
         <v>505</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F90" s="15" t="s">
         <v>187</v>
@@ -5929,7 +5871,7 @@
         <v>506</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F91" s="15" t="s">
         <v>189</v>
@@ -5952,7 +5894,7 @@
         <v>547</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F92" s="15" t="s">
         <v>191</v>
@@ -5975,7 +5917,7 @@
         <v>508</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F93" s="15" t="s">
         <v>193</v>
@@ -5998,7 +5940,7 @@
         <v>195</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F94" s="15" t="s">
         <v>196</v>
@@ -6021,7 +5963,7 @@
         <v>507</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F95" s="15" t="s">
         <v>198</v>
@@ -6044,7 +5986,7 @@
         <v>502</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F96" s="15" t="s">
         <v>200</v>
@@ -6067,7 +6009,7 @@
         <v>202</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F97" s="15" t="s">
         <v>203</v>
@@ -6090,7 +6032,7 @@
         <v>205</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F98" s="15" t="s">
         <v>206</v>
@@ -6113,7 +6055,7 @@
         <v>205</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F99" s="15" t="s">
         <v>208</v>
@@ -6133,10 +6075,10 @@
         <v>210</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F100" s="15" t="s">
         <v>211</v>
@@ -6159,7 +6101,7 @@
         <v>213</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F101" s="15" t="s">
         <v>214</v>
@@ -6179,10 +6121,10 @@
         <v>215</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F102" s="15" t="s">
         <v>216</v>
@@ -6226,7 +6168,7 @@
         <v>221</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F104" s="15" t="s">
         <v>222</v>
@@ -6251,7 +6193,7 @@
         <v>221</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F105" s="15" t="s">
         <v>224</v>
@@ -6276,7 +6218,7 @@
         <v>521</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F106" s="15" t="s">
         <v>224</v>
@@ -6299,7 +6241,7 @@
         <v>227</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F107" s="15" t="s">
         <v>228</v>
@@ -6322,7 +6264,7 @@
         <v>230</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F108" s="15" t="s">
         <v>231</v>
@@ -6342,10 +6284,10 @@
         <v>232</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F109" s="15" t="s">
         <v>233</v>
@@ -6370,7 +6312,7 @@
         <v>235</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F110" s="15" t="s">
         <v>236</v>
@@ -6393,7 +6335,7 @@
         <v>238</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F111" s="15" t="s">
         <v>239</v>
@@ -6413,10 +6355,10 @@
         <v>240</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F112" s="15" t="s">
         <v>241</v>
@@ -6439,7 +6381,7 @@
         <v>242</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F113" s="15" t="s">
         <v>243</v>
@@ -6462,7 +6404,7 @@
         <v>245</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F114" s="15" t="s">
         <v>246</v>
@@ -6485,7 +6427,7 @@
         <v>248</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F115" s="15" t="s">
         <v>249</v>
@@ -6510,7 +6452,7 @@
         <v>251</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F116" s="15" t="s">
         <v>252</v>
@@ -6530,17 +6472,17 @@
         <v>253</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F117" s="15" t="s">
         <v>254</v>
       </c>
       <c r="G117" s="21"/>
       <c r="H117" s="21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I117" s="21"/>
     </row>
@@ -6558,7 +6500,7 @@
         <v>256</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F118" s="15" t="s">
         <v>257</v>
@@ -6581,7 +6523,7 @@
         <v>259</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F119" s="15" t="s">
         <v>260</v>
@@ -6604,7 +6546,7 @@
         <v>262</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F120" s="15" t="s">
         <v>263</v>
@@ -6627,7 +6569,7 @@
         <v>265</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F121" s="15" t="s">
         <v>266</v>
@@ -6647,10 +6589,10 @@
         <v>267</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F122" s="15" t="s">
         <v>268</v>
@@ -6673,7 +6615,7 @@
         <v>564</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F123" s="15" t="s">
         <v>270</v>
@@ -6696,7 +6638,7 @@
         <v>272</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F124" s="15" t="s">
         <v>273</v>
@@ -6716,10 +6658,10 @@
         <v>274</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F125" s="15" t="s">
         <v>275</v>
@@ -6736,16 +6678,16 @@
         <v>209</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F126" s="15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G126" s="21"/>
       <c r="H126" s="21"/>
@@ -6765,7 +6707,7 @@
         <v>277</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F127" s="15" t="s">
         <v>278</v>
@@ -6788,7 +6730,7 @@
         <v>280</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F128" s="15" t="s">
         <v>281</v>
@@ -6811,7 +6753,7 @@
         <v>283</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F129" s="15" t="s">
         <v>284</v>
@@ -6834,7 +6776,7 @@
         <v>286</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F130" s="15" t="s">
         <v>287</v>
@@ -6857,7 +6799,7 @@
         <v>289</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F131" s="15" t="s">
         <v>290</v>
@@ -6880,7 +6822,7 @@
         <v>515</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F132" s="15" t="s">
         <v>292</v>
@@ -6903,7 +6845,7 @@
         <v>512</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F133" s="15" t="s">
         <v>294</v>
@@ -6926,7 +6868,7 @@
         <v>516</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F134" s="15" t="s">
         <v>296</v>
@@ -6949,7 +6891,7 @@
         <v>520</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F135" s="15" t="s">
         <v>298</v>
@@ -6972,7 +6914,7 @@
         <v>517</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F136" s="15" t="s">
         <v>300</v>
@@ -6995,7 +6937,7 @@
         <v>511</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F137" s="15" t="s">
         <v>302</v>
@@ -7018,7 +6960,7 @@
         <v>510</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F138" s="15" t="s">
         <v>304</v>
@@ -7041,7 +6983,7 @@
         <v>306</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F139" s="15" t="s">
         <v>307</v>
@@ -7064,7 +7006,7 @@
         <v>309</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F140" s="15" t="s">
         <v>310</v>
@@ -7087,7 +7029,7 @@
         <v>312</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F141" s="15" t="s">
         <v>313</v>
@@ -7109,10 +7051,10 @@
         <v>314</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F142" s="15" t="s">
         <v>315</v>
@@ -7129,19 +7071,19 @@
         <v>209</v>
       </c>
       <c r="C143" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="E143" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="F143" s="15" t="s">
         <v>702</v>
       </c>
-      <c r="E143" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="F143" s="15" t="s">
+      <c r="G143" s="21" t="s">
         <v>703</v>
-      </c>
-      <c r="G143" s="21" t="s">
-        <v>704</v>
       </c>
       <c r="H143" s="4"/>
       <c r="I143" s="21"/>
@@ -7154,20 +7096,20 @@
         <v>209</v>
       </c>
       <c r="C144" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="E144" s="15" t="s">
         <v>711</v>
       </c>
-      <c r="E144" s="15" t="s">
+      <c r="F144" s="15" t="s">
         <v>712</v>
-      </c>
-      <c r="F144" s="15" t="s">
-        <v>713</v>
       </c>
       <c r="G144" s="21"/>
       <c r="H144" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I144" s="21"/>
     </row>
@@ -7251,7 +7193,7 @@
         <v>481</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>571</v>
@@ -7294,10 +7236,10 @@
         <v>328</v>
       </c>
       <c r="C150" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>616</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>617</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>401</v>
@@ -7320,7 +7262,7 @@
         <v>479</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>401</v>
@@ -7343,7 +7285,7 @@
         <v>478</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>401</v>
@@ -7461,7 +7403,7 @@
         <v>473</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F157" s="15" t="s">
         <v>402</v>
@@ -7553,7 +7495,7 @@
         <v>472</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F161" s="15" t="s">
         <v>471</v>
@@ -7573,7 +7515,7 @@
         <v>341</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>344</v>
@@ -7596,7 +7538,7 @@
         <v>343</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>344</v>
@@ -7619,7 +7561,7 @@
         <v>413</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>344</v>
@@ -7711,7 +7653,7 @@
         <v>524</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>401</v>
@@ -7736,7 +7678,7 @@
         <v>527</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>401</v>
@@ -7833,20 +7775,20 @@
         <v>353</v>
       </c>
       <c r="C173" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="D173" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="E173" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="F173" s="15" t="s">
         <v>706</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="F173" s="15" t="s">
-        <v>707</v>
       </c>
       <c r="G173" s="21"/>
       <c r="H173" s="21" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I173" s="21"/>
     </row>
@@ -7907,7 +7849,7 @@
         <v>354</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>419</v>
@@ -7930,7 +7872,7 @@
         <v>461</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>401</v>
@@ -7953,7 +7895,7 @@
         <v>357</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>401</v>
@@ -8022,7 +7964,7 @@
         <v>362</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>401</v>
@@ -8071,7 +8013,7 @@
         <v>457</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F183" s="15" t="s">
         <v>367</v>
@@ -8094,7 +8036,7 @@
         <v>456</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F184" s="15" t="s">
         <v>368</v>
@@ -8117,7 +8059,7 @@
         <v>542</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F185" s="15" t="s">
         <v>455</v>
@@ -8134,10 +8076,10 @@
         <v>370</v>
       </c>
       <c r="C186" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>628</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>629</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>434</v>
@@ -8163,7 +8105,7 @@
         <v>541</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F187" s="15" t="s">
         <v>454</v>
@@ -8231,10 +8173,10 @@
         <v>451</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F190" s="15" t="s">
         <v>376</v>
@@ -8254,7 +8196,7 @@
         <v>450</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>404</v>
@@ -8277,7 +8219,7 @@
         <v>378</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>418</v>
@@ -8300,7 +8242,7 @@
         <v>405</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>418</v>
@@ -8323,10 +8265,10 @@
         <v>449</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F194" s="15" t="s">
         <v>381</v>
@@ -8395,7 +8337,7 @@
         <v>407</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F197" s="15" t="s">
         <v>384</v>
@@ -8412,20 +8354,20 @@
         <v>375</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>418</v>
       </c>
       <c r="F198" s="15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G198" s="21"/>
       <c r="H198" s="21" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I198" s="21"/>
     </row>
@@ -8440,7 +8382,7 @@
         <v>408</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>418</v>
@@ -8555,7 +8497,7 @@
         <v>393</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>418</v>
@@ -8650,7 +8592,7 @@
         <v>441</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F208" s="15" t="s">
         <v>398</v>
@@ -8716,10 +8658,10 @@
         <v>562</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F211" s="15" t="s">
         <v>586</v>
@@ -8728,7 +8670,7 @@
       <c r="H211" s="21"/>
       <c r="I211" s="21"/>
     </row>
-    <row r="212" spans="1:9" ht="272">
+    <row r="212" spans="1:9" ht="34">
       <c r="A212" s="11" t="s">
         <v>99</v>
       </c>
@@ -8739,16 +8681,16 @@
         <v>587</v>
       </c>
       <c r="D212" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="F212" s="15" t="s">
         <v>588</v>
       </c>
-      <c r="E212" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="F212" s="15" t="s">
+      <c r="G212" s="21" t="s">
         <v>589</v>
-      </c>
-      <c r="G212" s="21" t="s">
-        <v>590</v>
       </c>
       <c r="H212" s="21"/>
       <c r="I212" s="21"/>
@@ -8761,16 +8703,16 @@
         <v>585</v>
       </c>
       <c r="C213" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="F213" s="15" t="s">
         <v>591</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="F213" s="15" t="s">
-        <v>592</v>
       </c>
       <c r="G213" s="21"/>
       <c r="H213" s="21"/>
@@ -8781,17 +8723,17 @@
         <v>99</v>
       </c>
       <c r="B214" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="C214" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="C214" s="3" t="s">
-        <v>636</v>
-      </c>
       <c r="D214" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E214" s="3"/>
       <c r="F214" s="15" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G214" s="21"/>
       <c r="H214" s="21"/>
@@ -8799,102 +8741,88 @@
     </row>
     <row r="215" spans="1:9" ht="85">
       <c r="A215" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E215" s="24"/>
       <c r="F215" s="6"/>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="D216" s="3" t="s">
-        <v>728</v>
+      <c r="D216" s="16">
+        <v>4953</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="B217" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="D217" s="3">
-        <v>4953</v>
+      <c r="D217" s="3" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="D218" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="D218" s="6" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="219" spans="1:9">
-      <c r="A219" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="B219" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="C219" s="3" t="s">
-        <v>733</v>
+      <c r="A219" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>737</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D220" s="3" t="s">
         <v>740</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="D220" s="6" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
-      <c r="A221" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>744</v>
       </c>
     </row>
   </sheetData>
